--- a/Original Files/OSHU Invoice 10176150 - Hillsboro Medical Center ORIG.xlsx
+++ b/Original Files/OSHU Invoice 10176150 - Hillsboro Medical Center ORIG.xlsx
@@ -24873,4 +24873,276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9ca6de6a992593ec3295afdb73980d5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c3625fcdb5b97911e04df756c65f947" ns2:_="" ns3:_="">
+    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
+    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11F3B4BC-014E-47FA-8D38-85AE184E267D}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C028147D-C65A-49CE-B184-096755267B09}"/>
 </file>
--- a/Original Files/OSHU Invoice 10176150 - Hillsboro Medical Center ORIG.xlsx
+++ b/Original Files/OSHU Invoice 10176150 - Hillsboro Medical Center ORIG.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49C21DC-38E7-4DD8-9D1D-22F70D81CC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F47299-2EC7-407B-B087-B04A3DE763B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F975E474-CC37-4C97-84B1-E172BE5278BB}"/>
+    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{2F689CD7-0730-46CE-AAA5-1322B226C685}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>PO Box 674907</t>
   </si>
   <si>
-    <t>Dallas, TX 75267-4907</t>
+    <t>Dallas, TX 7526 - 4907</t>
   </si>
   <si>
     <t>PNC Bank. N.A</t>
@@ -1217,7 +1217,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3BDFFF-C762-8ACB-0C48-1CB83CC68E25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE997A7-D862-7353-E5A5-C74040219E68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB95AA0-969C-40CF-BE9F-A61E5CE0CF60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B710F604-0193-4C4A-A7CA-2A5AFF420E80}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2277,13 +2277,13 @@
     <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="50" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="50" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB18380-ADC3-41FE-888E-BEAD4BD6D9A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918B37AE-EEF9-4638-8A06-CFAF2F75304F}">
   <dimension ref="A1:V332"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
